--- a/server/uploads/cleaned_uncleaned_bike_sales_data.xlsx
+++ b/server/uploads/cleaned_uncleaned_bike_sales_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> United States</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">United States </t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1286,13 +1286,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>261705</v>
+        <v>261704</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44535</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>13.53409090909091</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>2021</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1337,31 +1337,31 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P12" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q12" t="n">
-        <v>1054</v>
+        <v>4172</v>
       </c>
       <c r="R12" t="n">
-        <v>1266</v>
+        <v>5008</v>
       </c>
       <c r="S12" t="n">
-        <v>2320</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>261706</v>
+        <v>261705</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44535</v>
@@ -1378,7 +1378,7 @@
         <v>2021</v>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1412,37 +1412,37 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P13" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q13" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="R13" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="S13" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>261707</v>
+        <v>261706</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44536</v>
+        <v>44535</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,26 +1453,26 @@
         <v>2021</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1487,31 +1487,31 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P14" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q14" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="R14" t="n">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="S14" t="n">
-        <v>2307</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>261708</v>
+        <v>261707</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44536</v>
@@ -1528,11 +1528,11 @@
         <v>2021</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1562,31 +1562,31 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P15" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q15" t="n">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="R15" t="n">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="S15" t="n">
-        <v>2295</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>261710</v>
+        <v>261708</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44536</v>
@@ -1603,11 +1603,11 @@
         <v>2021</v>
       </c>
       <c r="F16" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1637,52 +1637,52 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P16" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q16" t="n">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="R16" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="S16" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>261711</v>
+        <v>261709</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Decmber</t>
+          <t>December</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>2021</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1692,12 +1692,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1712,37 +1712,37 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 38</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P17" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q17" t="n">
-        <v>1396</v>
+        <v>1043</v>
       </c>
       <c r="R17" t="n">
-        <v>1680</v>
+        <v>1252</v>
       </c>
       <c r="S17" t="n">
-        <v>3076</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>261712</v>
+        <v>261710</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>2021</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1787,11 +1787,11 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1266</v>
@@ -1800,54 +1800,54 @@
         <v>2320</v>
       </c>
       <c r="Q18" t="n">
-        <v>2108</v>
+        <v>1054</v>
       </c>
       <c r="R18" t="n">
-        <v>2532</v>
+        <v>1266</v>
       </c>
       <c r="S18" t="n">
-        <v>4640</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>261713</v>
+        <v>261711</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Decmber</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>2021</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1862,37 +1862,37 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 42</t>
+          <t>Mountain-400-W Silver, 38</t>
         </is>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="P19" t="n">
-        <v>565</v>
+        <v>769</v>
       </c>
       <c r="Q19" t="n">
-        <v>1028</v>
+        <v>1396</v>
       </c>
       <c r="R19" t="n">
-        <v>1232</v>
+        <v>1680</v>
       </c>
       <c r="S19" t="n">
-        <v>2260</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>261714</v>
+        <v>261712</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1903,26 +1903,26 @@
         <v>2021</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1937,11 +1937,11 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1266</v>
@@ -1950,24 +1950,24 @@
         <v>2320</v>
       </c>
       <c r="Q20" t="n">
-        <v>4216</v>
+        <v>2108</v>
       </c>
       <c r="R20" t="n">
-        <v>5064</v>
+        <v>2532</v>
       </c>
       <c r="S20" t="n">
-        <v>9280</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>261717</v>
+        <v>261713</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1978,11 +1978,11 @@
         <v>2021</v>
       </c>
       <c r="F21" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2012,37 +2012,37 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Mountain-100 Black, 38</t>
+          <t>Mountain-500 Silver, 42</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1898</v>
+        <v>308</v>
       </c>
       <c r="P21" t="n">
-        <v>3375</v>
+        <v>565</v>
       </c>
       <c r="Q21" t="n">
-        <v>2954</v>
+        <v>1028</v>
       </c>
       <c r="R21" t="n">
-        <v>3796</v>
+        <v>1232</v>
       </c>
       <c r="S21" t="n">
-        <v>6750</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>261718</v>
+        <v>261714</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2053,11 +2053,11 @@
         <v>2021</v>
       </c>
       <c r="F22" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>1266</v>
@@ -2100,24 +2100,24 @@
         <v>2320</v>
       </c>
       <c r="Q22" t="n">
-        <v>1054</v>
+        <v>4216</v>
       </c>
       <c r="R22" t="n">
-        <v>1266</v>
+        <v>5064</v>
       </c>
       <c r="S22" t="n">
-        <v>2320</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>261719</v>
+        <v>261715</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44540</v>
+        <v>44538</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2128,11 +2128,11 @@
         <v>2021</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2186,13 +2186,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>261720</v>
+        <v>261716</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44540</v>
+        <v>44538</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>2021</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2212,17 +2212,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2237,37 +2237,37 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-500 Black, 42</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="O24" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="P24" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="n">
-        <v>2086</v>
+        <v>245</v>
       </c>
       <c r="R24" t="n">
-        <v>2504</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>261721</v>
+        <v>261717</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>2021</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2287,17 +2287,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2312,37 +2312,37 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-100 Black, 38</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1252</v>
+        <v>1898</v>
       </c>
       <c r="P25" t="n">
-        <v>2295</v>
+        <v>3375</v>
       </c>
       <c r="Q25" t="n">
-        <v>1043</v>
+        <v>2954</v>
       </c>
       <c r="R25" t="n">
-        <v>1252</v>
+        <v>3796</v>
       </c>
       <c r="S25" t="n">
-        <v>2295</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>261722</v>
+        <v>261718</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2353,26 +2353,26 @@
         <v>2021</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2387,31 +2387,31 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 40</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>295</v>
+        <v>1266</v>
       </c>
       <c r="P26" t="n">
-        <v>540</v>
+        <v>2320</v>
       </c>
       <c r="Q26" t="n">
-        <v>245</v>
+        <v>1054</v>
       </c>
       <c r="R26" t="n">
-        <v>295</v>
+        <v>1266</v>
       </c>
       <c r="S26" t="n">
-        <v>540</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>261723</v>
+        <v>261719</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44540</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2462,31 +2462,31 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Mountain-100 Silver, 44</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1912</v>
+        <v>1252</v>
       </c>
       <c r="P27" t="n">
-        <v>3400</v>
+        <v>2295</v>
       </c>
       <c r="Q27" t="n">
-        <v>1488</v>
+        <v>2086</v>
       </c>
       <c r="R27" t="n">
-        <v>1912</v>
+        <v>2504</v>
       </c>
       <c r="S27" t="n">
-        <v>3400</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>261724</v>
+        <v>261720</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>44540</v>
@@ -2503,7 +2503,7 @@
         <v>2021</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>1252</v>
@@ -2550,24 +2550,24 @@
         <v>2295</v>
       </c>
       <c r="Q28" t="n">
-        <v>1043</v>
+        <v>2086</v>
       </c>
       <c r="R28" t="n">
-        <v>1252</v>
+        <v>2504</v>
       </c>
       <c r="S28" t="n">
-        <v>2295</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>261725</v>
+        <v>261721</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2578,26 +2578,26 @@
         <v>2021</v>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Seine (Paris)</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1252</v>
@@ -2625,24 +2625,24 @@
         <v>2295</v>
       </c>
       <c r="Q29" t="n">
-        <v>3129</v>
+        <v>1043</v>
       </c>
       <c r="R29" t="n">
-        <v>3756</v>
+        <v>1252</v>
       </c>
       <c r="S29" t="n">
-        <v>6885</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>261726</v>
+        <v>261722</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,26 +2653,26 @@
         <v>2021</v>
       </c>
       <c r="F30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2687,37 +2687,37 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 38</t>
+          <t>Mountain-500 Black, 40</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="P30" t="n">
-        <v>769</v>
+        <v>540</v>
       </c>
       <c r="Q30" t="n">
-        <v>698</v>
+        <v>245</v>
       </c>
       <c r="R30" t="n">
-        <v>840</v>
+        <v>295</v>
       </c>
       <c r="S30" t="n">
-        <v>1538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>261727</v>
+        <v>261723</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>2021</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2737,17 +2737,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2762,37 +2762,37 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-100 Silver, 44</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1252</v>
+        <v>1912</v>
       </c>
       <c r="P31" t="n">
-        <v>2295</v>
+        <v>3400</v>
       </c>
       <c r="Q31" t="n">
-        <v>1043</v>
+        <v>1488</v>
       </c>
       <c r="R31" t="n">
-        <v>1252</v>
+        <v>1912</v>
       </c>
       <c r="S31" t="n">
-        <v>2295</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>261728</v>
+        <v>261724</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>2021</v>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2837,31 +2837,31 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P32" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q32" t="n">
-        <v>349</v>
+        <v>1043</v>
       </c>
       <c r="R32" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="S32" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>261729</v>
+        <v>261725</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>44541</v>
@@ -2878,11 +2878,11 @@
         <v>2021</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Seine (Paris)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2912,37 +2912,37 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P33" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q33" t="n">
-        <v>1054</v>
+        <v>3129</v>
       </c>
       <c r="R33" t="n">
-        <v>1266</v>
+        <v>3756</v>
       </c>
       <c r="S33" t="n">
-        <v>2320</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>261730</v>
+        <v>261726</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>2021</v>
       </c>
       <c r="F34" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2987,37 +2987,37 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-400-W Silver, 38</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="P34" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
       <c r="Q34" t="n">
-        <v>4216</v>
+        <v>698</v>
       </c>
       <c r="R34" t="n">
-        <v>5064</v>
+        <v>840</v>
       </c>
       <c r="S34" t="n">
-        <v>9280</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>261731</v>
+        <v>261727</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,11 +3028,11 @@
         <v>2021</v>
       </c>
       <c r="F35" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3062,37 +3062,37 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P35" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q35" t="n">
-        <v>1396</v>
+        <v>1043</v>
       </c>
       <c r="R35" t="n">
-        <v>1680</v>
+        <v>1252</v>
       </c>
       <c r="S35" t="n">
-        <v>3076</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>261732</v>
+        <v>261728</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,11 +3103,11 @@
         <v>2021</v>
       </c>
       <c r="F36" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3117,12 +3117,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3137,37 +3137,37 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P36" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q36" t="n">
-        <v>2086</v>
+        <v>349</v>
       </c>
       <c r="R36" t="n">
-        <v>2504</v>
+        <v>420</v>
       </c>
       <c r="S36" t="n">
-        <v>4590</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>261733</v>
+        <v>261729</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>2021</v>
       </c>
       <c r="F37" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3236,7 +3236,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>261734</v>
+        <v>261730</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>44542</v>
@@ -3253,7 +3253,7 @@
         <v>2021</v>
       </c>
       <c r="F38" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3267,12 +3267,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O38" t="n">
         <v>1266</v>
@@ -3300,24 +3300,24 @@
         <v>2320</v>
       </c>
       <c r="Q38" t="n">
-        <v>1054</v>
+        <v>4216</v>
       </c>
       <c r="R38" t="n">
-        <v>1266</v>
+        <v>5064</v>
       </c>
       <c r="S38" t="n">
-        <v>2320</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>261735</v>
+        <v>261731</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,26 +3328,26 @@
         <v>2021</v>
       </c>
       <c r="F39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3362,37 +3362,37 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="P39" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
       <c r="Q39" t="n">
-        <v>3162</v>
+        <v>1396</v>
       </c>
       <c r="R39" t="n">
-        <v>3798</v>
+        <v>1680</v>
       </c>
       <c r="S39" t="n">
-        <v>6960</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>261736</v>
+        <v>261732</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3403,26 +3403,26 @@
         <v>2021</v>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3437,37 +3437,37 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 40</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>308</v>
+        <v>1252</v>
       </c>
       <c r="P40" t="n">
-        <v>565</v>
+        <v>2295</v>
       </c>
       <c r="Q40" t="n">
-        <v>257</v>
+        <v>2086</v>
       </c>
       <c r="R40" t="n">
-        <v>308</v>
+        <v>2504</v>
       </c>
       <c r="S40" t="n">
-        <v>565</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>261737</v>
+        <v>261733</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>2021</v>
       </c>
       <c r="F41" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3492,12 +3492,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3512,37 +3512,37 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P41" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q41" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="R41" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="S41" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>261738</v>
+        <v>261734</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>2021</v>
       </c>
       <c r="F42" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3562,17 +3562,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3587,37 +3587,37 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P42" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q42" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="R42" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="S42" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>261739</v>
+        <v>261735</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>2021</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
         <v>1266</v>
@@ -3675,24 +3675,24 @@
         <v>2320</v>
       </c>
       <c r="Q43" t="n">
-        <v>2108</v>
+        <v>3162</v>
       </c>
       <c r="R43" t="n">
-        <v>2532</v>
+        <v>3798</v>
       </c>
       <c r="S43" t="n">
-        <v>4640</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>261740</v>
+        <v>261736</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,16 +3703,16 @@
         <v>2021</v>
       </c>
       <c r="F44" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3737,37 +3737,37 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-500 Silver, 40</t>
         </is>
       </c>
       <c r="N44" t="n">
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>1252</v>
+        <v>308</v>
       </c>
       <c r="P44" t="n">
-        <v>2295</v>
+        <v>565</v>
       </c>
       <c r="Q44" t="n">
-        <v>1043</v>
+        <v>257</v>
       </c>
       <c r="R44" t="n">
-        <v>1252</v>
+        <v>308</v>
       </c>
       <c r="S44" t="n">
-        <v>2295</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>261741</v>
+        <v>261737</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3778,11 +3778,11 @@
         <v>2021</v>
       </c>
       <c r="F45" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3792,12 +3792,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3812,37 +3812,37 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N45" t="n">
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P45" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q45" t="n">
-        <v>349</v>
+        <v>1043</v>
       </c>
       <c r="R45" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="S45" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>261742</v>
+        <v>261738</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3853,26 +3853,26 @@
         <v>2021</v>
       </c>
       <c r="F46" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3887,37 +3887,37 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N46" t="n">
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P46" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q46" t="n">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="R46" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="S46" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>261743</v>
+        <v>261739</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>2021</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3962,37 +3962,37 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N47" t="n">
         <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P47" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q47" t="n">
-        <v>2086</v>
+        <v>2108</v>
       </c>
       <c r="R47" t="n">
-        <v>2504</v>
+        <v>2532</v>
       </c>
       <c r="S47" t="n">
-        <v>4590</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>261744</v>
+        <v>261740</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4003,11 +4003,11 @@
         <v>2021</v>
       </c>
       <c r="F48" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>1252</v>
@@ -4050,24 +4050,24 @@
         <v>2295</v>
       </c>
       <c r="Q48" t="n">
-        <v>2086</v>
+        <v>1043</v>
       </c>
       <c r="R48" t="n">
-        <v>2504</v>
+        <v>1252</v>
       </c>
       <c r="S48" t="n">
-        <v>4590</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>261745</v>
+        <v>261741</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>2021</v>
       </c>
       <c r="F49" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Seine et Marne</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4112,37 +4112,37 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="P49" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
       <c r="Q49" t="n">
-        <v>1054</v>
+        <v>349</v>
       </c>
       <c r="R49" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="S49" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>261746</v>
+        <v>261742</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44547</v>
+        <v>44545</v>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4153,11 +4153,11 @@
         <v>2021</v>
       </c>
       <c r="F50" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4187,11 +4187,11 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>1266</v>
@@ -4200,24 +4200,24 @@
         <v>2320</v>
       </c>
       <c r="Q50" t="n">
-        <v>2108</v>
+        <v>1054</v>
       </c>
       <c r="R50" t="n">
-        <v>2532</v>
+        <v>1266</v>
       </c>
       <c r="S50" t="n">
-        <v>4640</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>261747</v>
+        <v>261743</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>2021</v>
       </c>
       <c r="F51" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4262,37 +4262,37 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 42</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P51" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q51" t="n">
-        <v>349</v>
+        <v>2086</v>
       </c>
       <c r="R51" t="n">
-        <v>420</v>
+        <v>2504</v>
       </c>
       <c r="S51" t="n">
-        <v>769</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>261748</v>
+        <v>261744</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>2021</v>
       </c>
       <c r="F52" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4337,37 +4337,37 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P52" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q52" t="n">
-        <v>1054</v>
+        <v>2086</v>
       </c>
       <c r="R52" t="n">
-        <v>1266</v>
+        <v>2504</v>
       </c>
       <c r="S52" t="n">
-        <v>2320</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>261749</v>
+        <v>261745</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44548</v>
+        <v>44546</v>
       </c>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4378,11 +4378,11 @@
         <v>2021</v>
       </c>
       <c r="F53" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Seine et Marne</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4412,37 +4412,37 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 42</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>308</v>
+        <v>1266</v>
       </c>
       <c r="P53" t="n">
-        <v>565</v>
+        <v>2320</v>
       </c>
       <c r="Q53" t="n">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="R53" t="n">
-        <v>1232</v>
+        <v>1266</v>
       </c>
       <c r="S53" t="n">
-        <v>2260</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>261750</v>
+        <v>261746</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>2021</v>
       </c>
       <c r="F54" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4467,12 +4467,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4487,11 +4487,11 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
         <v>1266</v>
@@ -4500,24 +4500,24 @@
         <v>2320</v>
       </c>
       <c r="Q54" t="n">
-        <v>4216</v>
+        <v>2108</v>
       </c>
       <c r="R54" t="n">
-        <v>5064</v>
+        <v>2532</v>
       </c>
       <c r="S54" t="n">
-        <v>9280</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>261751</v>
+        <v>261747</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4528,26 +4528,26 @@
         <v>2021</v>
       </c>
       <c r="F55" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Seine Saint Denis</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4562,37 +4562,37 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-400-W Silver, 42</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="P55" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
       <c r="Q55" t="n">
-        <v>3162</v>
+        <v>349</v>
       </c>
       <c r="R55" t="n">
-        <v>3798</v>
+        <v>420</v>
       </c>
       <c r="S55" t="n">
-        <v>6960</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>261752</v>
+        <v>261748</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4603,11 +4603,11 @@
         <v>2021</v>
       </c>
       <c r="F56" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4637,31 +4637,31 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 42</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="P56" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
       <c r="Q56" t="n">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="R56" t="n">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="S56" t="n">
-        <v>2307</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>261753</v>
+        <v>261749</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>44548</v>
@@ -4678,7 +4678,7 @@
         <v>2021</v>
       </c>
       <c r="F57" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4712,31 +4712,31 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-500 Silver, 42</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O57" t="n">
-        <v>1252</v>
+        <v>308</v>
       </c>
       <c r="P57" t="n">
-        <v>2295</v>
+        <v>565</v>
       </c>
       <c r="Q57" t="n">
-        <v>3129</v>
+        <v>1028</v>
       </c>
       <c r="R57" t="n">
-        <v>3756</v>
+        <v>1232</v>
       </c>
       <c r="S57" t="n">
-        <v>6885</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>261754</v>
+        <v>261750</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>44548</v>
@@ -4753,26 +4753,26 @@
         <v>2021</v>
       </c>
       <c r="F58" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Seine (Paris)</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4787,31 +4787,31 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O58" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P58" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q58" t="n">
-        <v>1043</v>
+        <v>4216</v>
       </c>
       <c r="R58" t="n">
-        <v>1252</v>
+        <v>5064</v>
       </c>
       <c r="S58" t="n">
-        <v>2295</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>261755</v>
+        <v>261751</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>44548</v>
@@ -4828,26 +4828,26 @@
         <v>2021</v>
       </c>
       <c r="F59" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Seine Saint Denis</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
         <v>1266</v>
@@ -4875,24 +4875,24 @@
         <v>2320</v>
       </c>
       <c r="Q59" t="n">
-        <v>1054</v>
+        <v>3162</v>
       </c>
       <c r="R59" t="n">
-        <v>1266</v>
+        <v>3798</v>
       </c>
       <c r="S59" t="n">
-        <v>2320</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>261756</v>
+        <v>261752</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4903,26 +4903,26 @@
         <v>2021</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4937,37 +4937,37 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-400-W Silver, 42</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O60" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="P60" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
       <c r="Q60" t="n">
-        <v>4216</v>
+        <v>1047</v>
       </c>
       <c r="R60" t="n">
-        <v>5064</v>
+        <v>1260</v>
       </c>
       <c r="S60" t="n">
-        <v>9280</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>261757</v>
+        <v>261753</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4978,26 +4978,26 @@
         <v>2021</v>
       </c>
       <c r="F61" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5012,37 +5012,37 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 44</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="P61" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
       <c r="Q61" t="n">
-        <v>980</v>
+        <v>3129</v>
       </c>
       <c r="R61" t="n">
-        <v>1180</v>
+        <v>3756</v>
       </c>
       <c r="S61" t="n">
-        <v>2160</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>261758</v>
+        <v>261754</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>2021</v>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
         <v>1252</v>
@@ -5100,24 +5100,24 @@
         <v>2295</v>
       </c>
       <c r="Q62" t="n">
-        <v>4172</v>
+        <v>1043</v>
       </c>
       <c r="R62" t="n">
-        <v>5008</v>
+        <v>1252</v>
       </c>
       <c r="S62" t="n">
-        <v>9180</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>261759</v>
+        <v>261755</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>2021</v>
       </c>
       <c r="F63" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5162,31 +5162,31 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Mountain-100 Black, 48</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>1898</v>
+        <v>1266</v>
       </c>
       <c r="P63" t="n">
-        <v>3375</v>
+        <v>2320</v>
       </c>
       <c r="Q63" t="n">
-        <v>5908</v>
+        <v>1054</v>
       </c>
       <c r="R63" t="n">
-        <v>7592</v>
+        <v>1266</v>
       </c>
       <c r="S63" t="n">
-        <v>13500</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>261760</v>
+        <v>261756</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>44549</v>
@@ -5203,11 +5203,11 @@
         <v>2021</v>
       </c>
       <c r="F64" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5217,12 +5217,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5237,31 +5237,31 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N64" t="n">
         <v>4</v>
       </c>
       <c r="O64" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P64" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q64" t="n">
-        <v>4172</v>
+        <v>4216</v>
       </c>
       <c r="R64" t="n">
-        <v>5008</v>
+        <v>5064</v>
       </c>
       <c r="S64" t="n">
-        <v>9180</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>261761</v>
+        <v>261757</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>44549</v>
@@ -5278,11 +5278,11 @@
         <v>2021</v>
       </c>
       <c r="F65" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5292,12 +5292,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5312,31 +5312,31 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-500 Black, 44</t>
         </is>
       </c>
       <c r="N65" t="n">
         <v>4</v>
       </c>
       <c r="O65" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="P65" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
       <c r="Q65" t="n">
-        <v>4172</v>
+        <v>980</v>
       </c>
       <c r="R65" t="n">
-        <v>5008</v>
+        <v>1180</v>
       </c>
       <c r="S65" t="n">
-        <v>9180</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>261762</v>
+        <v>261758</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>44549</v>
@@ -5353,26 +5353,26 @@
         <v>2021</v>
       </c>
       <c r="F66" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Seine (Paris)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -5411,7 +5411,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>261763</v>
+        <v>261759</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>44549</v>
@@ -5428,26 +5428,26 @@
         <v>2021</v>
       </c>
       <c r="F67" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>South Australia</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5462,31 +5462,31 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 40</t>
+          <t>Mountain-100 Black, 48</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O67" t="n">
-        <v>295</v>
+        <v>1898</v>
       </c>
       <c r="P67" t="n">
-        <v>540</v>
+        <v>3375</v>
       </c>
       <c r="Q67" t="n">
-        <v>490</v>
+        <v>5908</v>
       </c>
       <c r="R67" t="n">
-        <v>590</v>
+        <v>7592</v>
       </c>
       <c r="S67" t="n">
-        <v>1080</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>261764</v>
+        <v>261760</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>44549</v>
@@ -5503,7 +5503,7 @@
         <v>2021</v>
       </c>
       <c r="F68" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5537,11 +5537,11 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O68" t="n">
         <v>1252</v>
@@ -5550,18 +5550,18 @@
         <v>2295</v>
       </c>
       <c r="Q68" t="n">
-        <v>2086</v>
+        <v>4172</v>
       </c>
       <c r="R68" t="n">
-        <v>2504</v>
+        <v>5008</v>
       </c>
       <c r="S68" t="n">
-        <v>4590</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>261765</v>
+        <v>261761</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>44549</v>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5612,37 +5612,37 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O69" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P69" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q69" t="n">
-        <v>1054</v>
+        <v>4172</v>
       </c>
       <c r="R69" t="n">
-        <v>1266</v>
+        <v>5008</v>
       </c>
       <c r="S69" t="n">
-        <v>2320</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>261766</v>
+        <v>261762</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5653,11 +5653,11 @@
         <v>2021</v>
       </c>
       <c r="F70" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5687,37 +5687,37 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Mountain-100 Black, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N70" t="n">
         <v>4</v>
       </c>
       <c r="O70" t="n">
-        <v>1898</v>
+        <v>1252</v>
       </c>
       <c r="P70" t="n">
-        <v>3375</v>
+        <v>2295</v>
       </c>
       <c r="Q70" t="n">
-        <v>5908</v>
+        <v>4172</v>
       </c>
       <c r="R70" t="n">
-        <v>7592</v>
+        <v>5008</v>
       </c>
       <c r="S70" t="n">
-        <v>13500</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>261767</v>
+        <v>261763</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="C71" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5728,11 +5728,11 @@
         <v>2021</v>
       </c>
       <c r="F71" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>South Australia</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5762,37 +5762,37 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-500 Black, 40</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="P71" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
       <c r="Q71" t="n">
-        <v>4172</v>
+        <v>490</v>
       </c>
       <c r="R71" t="n">
-        <v>5008</v>
+        <v>590</v>
       </c>
       <c r="S71" t="n">
-        <v>9180</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>261768</v>
+        <v>261764</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5803,26 +5803,26 @@
         <v>2021</v>
       </c>
       <c r="F72" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5837,37 +5837,37 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 52</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="P72" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
       <c r="Q72" t="n">
-        <v>735</v>
+        <v>2086</v>
       </c>
       <c r="R72" t="n">
-        <v>885</v>
+        <v>2504</v>
       </c>
       <c r="S72" t="n">
-        <v>1620</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>261769</v>
+        <v>261765</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>2021</v>
       </c>
       <c r="F73" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5892,12 +5892,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5936,7 +5936,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>261770</v>
+        <v>261766</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>44550</v>
@@ -5953,16 +5953,16 @@
         <v>2021</v>
       </c>
       <c r="F74" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5987,37 +5987,37 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-100 Black, 38</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O74" t="n">
-        <v>1266</v>
+        <v>1898</v>
       </c>
       <c r="P74" t="n">
-        <v>2320</v>
+        <v>3375</v>
       </c>
       <c r="Q74" t="n">
-        <v>1054</v>
+        <v>5908</v>
       </c>
       <c r="R74" t="n">
-        <v>1266</v>
+        <v>7592</v>
       </c>
       <c r="S74" t="n">
-        <v>2320</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>261771</v>
+        <v>261767</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6028,11 +6028,11 @@
         <v>2021</v>
       </c>
       <c r="F75" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6042,12 +6042,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Somme</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6062,37 +6062,37 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O75" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P75" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q75" t="n">
-        <v>3162</v>
+        <v>4172</v>
       </c>
       <c r="R75" t="n">
-        <v>3798</v>
+        <v>5008</v>
       </c>
       <c r="S75" t="n">
-        <v>6960</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>261772</v>
+        <v>261768</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6103,11 +6103,11 @@
         <v>2021</v>
       </c>
       <c r="F76" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6117,12 +6117,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6137,37 +6137,37 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-500 Black, 52</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O76" t="n">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="P76" t="n">
-        <v>769</v>
+        <v>540</v>
       </c>
       <c r="Q76" t="n">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="R76" t="n">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="S76" t="n">
-        <v>1538</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>261773</v>
+        <v>261769</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44552</v>
+        <v>44550</v>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6178,11 +6178,11 @@
         <v>2021</v>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6192,12 +6192,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
         <v>1266</v>
@@ -6225,24 +6225,24 @@
         <v>2320</v>
       </c>
       <c r="Q77" t="n">
-        <v>3162</v>
+        <v>1054</v>
       </c>
       <c r="R77" t="n">
-        <v>3798</v>
+        <v>1266</v>
       </c>
       <c r="S77" t="n">
-        <v>6960</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>261774</v>
+        <v>261770</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44552</v>
+        <v>44550</v>
       </c>
       <c r="C78" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>2021</v>
       </c>
       <c r="F78" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6267,12 +6267,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6287,37 +6287,37 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P78" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q78" t="n">
-        <v>3129</v>
+        <v>1054</v>
       </c>
       <c r="R78" t="n">
-        <v>3756</v>
+        <v>1266</v>
       </c>
       <c r="S78" t="n">
-        <v>6885</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>261775</v>
+        <v>261771</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6328,26 +6328,26 @@
         <v>2021</v>
       </c>
       <c r="F79" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Somme</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6362,37 +6362,37 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79" t="n">
-        <v>308</v>
+        <v>1266</v>
       </c>
       <c r="P79" t="n">
-        <v>565</v>
+        <v>2320</v>
       </c>
       <c r="Q79" t="n">
-        <v>257</v>
+        <v>3162</v>
       </c>
       <c r="R79" t="n">
-        <v>308</v>
+        <v>3798</v>
       </c>
       <c r="S79" t="n">
-        <v>565</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>261776</v>
+        <v>261772</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="C80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6403,11 +6403,11 @@
         <v>2021</v>
       </c>
       <c r="F80" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6417,12 +6417,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Seine (Paris)</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6437,31 +6437,31 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P80" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q80" t="n">
-        <v>1043</v>
+        <v>698</v>
       </c>
       <c r="R80" t="n">
-        <v>1252</v>
+        <v>840</v>
       </c>
       <c r="S80" t="n">
-        <v>2295</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>261777</v>
+        <v>261773</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>44552</v>
@@ -6478,7 +6478,7 @@
         <v>2021</v>
       </c>
       <c r="F81" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6512,31 +6512,31 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P81" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q81" t="n">
-        <v>1043</v>
+        <v>3162</v>
       </c>
       <c r="R81" t="n">
-        <v>1252</v>
+        <v>3798</v>
       </c>
       <c r="S81" t="n">
-        <v>2295</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>261778</v>
+        <v>261774</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>44552</v>
@@ -6567,12 +6567,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6587,37 +6587,37 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P82" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q82" t="n">
-        <v>1054</v>
+        <v>3129</v>
       </c>
       <c r="R82" t="n">
-        <v>1266</v>
+        <v>3756</v>
       </c>
       <c r="S82" t="n">
-        <v>2320</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>261779</v>
+        <v>261775</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6628,11 +6628,11 @@
         <v>2021</v>
       </c>
       <c r="F83" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6642,12 +6642,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6662,37 +6662,37 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-500 Silver, 42</t>
         </is>
       </c>
       <c r="N83" t="n">
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>1266</v>
+        <v>308</v>
       </c>
       <c r="P83" t="n">
-        <v>2320</v>
+        <v>565</v>
       </c>
       <c r="Q83" t="n">
-        <v>1054</v>
+        <v>257</v>
       </c>
       <c r="R83" t="n">
-        <v>1266</v>
+        <v>308</v>
       </c>
       <c r="S83" t="n">
-        <v>2320</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>261780</v>
+        <v>261776</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>2021</v>
       </c>
       <c r="F84" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -6712,17 +6712,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Seine (Paris)</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -6761,13 +6761,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>261781</v>
+        <v>261777</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6778,11 +6778,11 @@
         <v>2021</v>
       </c>
       <c r="F85" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6792,12 +6792,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6812,100 +6812,400 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 42</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N85" t="n">
         <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="P85" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
       <c r="Q85" t="n">
-        <v>245</v>
+        <v>1043</v>
       </c>
       <c r="R85" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="S85" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>261778</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="C86" t="n">
+        <v>22</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F86" t="n">
+        <v>41</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Adults (35-64)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Hessen</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Bikes</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Mountain Bikes</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Mountain-200 Silver, 38</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1266</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2320</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1054</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1266</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>261779</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="C87" t="n">
+        <v>23</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F87" t="n">
+        <v>30</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Young Adults (25-34)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Bikes</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Mountain Bikes</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Mountain-200 Silver, 42</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1266</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2320</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1054</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1266</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>261780</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="C88" t="n">
+        <v>23</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F88" t="n">
+        <v>31</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Young Adults (25-34)</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Bikes</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Mountain Bikes</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Mountain-200 Black, 42</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1252</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2295</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1043</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1252</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>261781</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="C89" t="n">
+        <v>23</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F89" t="n">
+        <v>35</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Adults (35-64)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Bikes</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Mountain Bikes</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Mountain-500 Black, 42</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>295</v>
+      </c>
+      <c r="P89" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>245</v>
+      </c>
+      <c r="R89" t="n">
+        <v>295</v>
+      </c>
+      <c r="S89" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
         <v>261782</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B90" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C90" t="n">
         <v>24</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F90" t="n">
         <v>38</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Adults (35-64)</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Queensland</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Bikes</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Mountain Bikes</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Bikes</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Mountain Bikes</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>Mountain-200 Black, 42</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="N90" t="n">
         <v>4</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O90" t="n">
         <v>1252</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P90" t="n">
         <v>2295</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q90" t="n">
         <v>4172</v>
       </c>
-      <c r="R86" t="n">
+      <c r="R90" t="n">
         <v>5008</v>
       </c>
-      <c r="S86" t="n">
+      <c r="S90" t="n">
         <v>9180</v>
       </c>
     </row>

--- a/server/uploads/cleaned_uncleaned_bike_sales_data.xlsx
+++ b/server/uploads/cleaned_uncleaned_bike_sales_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t xml:space="preserve"> United States</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t xml:space="preserve">United States </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1286,13 +1286,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>261704</v>
+        <v>261705</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44535</v>
       </c>
       <c r="C12" t="n">
-        <v>13.53409090909091</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>2021</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1337,31 +1337,31 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P12" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q12" t="n">
-        <v>4172</v>
+        <v>1054</v>
       </c>
       <c r="R12" t="n">
-        <v>5008</v>
+        <v>1266</v>
       </c>
       <c r="S12" t="n">
-        <v>9180</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>261705</v>
+        <v>261706</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44535</v>
@@ -1378,7 +1378,7 @@
         <v>2021</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1412,37 +1412,37 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P13" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q13" t="n">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="R13" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="S13" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>261706</v>
+        <v>261707</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44535</v>
+        <v>44536</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,26 +1453,26 @@
         <v>2021</v>
       </c>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1487,31 +1487,31 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P14" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q14" t="n">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="R14" t="n">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="S14" t="n">
-        <v>2295</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>261707</v>
+        <v>261708</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44536</v>
@@ -1528,11 +1528,11 @@
         <v>2021</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1562,31 +1562,31 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P15" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q15" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="R15" t="n">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="S15" t="n">
-        <v>2307</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>261708</v>
+        <v>261710</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44536</v>
@@ -1603,11 +1603,11 @@
         <v>2021</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1637,52 +1637,52 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P16" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q16" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="R16" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="S16" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>261709</v>
+        <v>261711</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Decmber</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>2021</v>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1692,12 +1692,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1712,37 +1712,37 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-400-W Silver, 38</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P17" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q17" t="n">
-        <v>1043</v>
+        <v>1396</v>
       </c>
       <c r="R17" t="n">
-        <v>1252</v>
+        <v>1680</v>
       </c>
       <c r="S17" t="n">
-        <v>2295</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>261710</v>
+        <v>261712</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>2021</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1787,11 +1787,11 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>1266</v>
@@ -1800,54 +1800,54 @@
         <v>2320</v>
       </c>
       <c r="Q18" t="n">
-        <v>1054</v>
+        <v>2108</v>
       </c>
       <c r="R18" t="n">
-        <v>1266</v>
+        <v>2532</v>
       </c>
       <c r="S18" t="n">
-        <v>2320</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>261711</v>
+        <v>261713</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Decmber</t>
+          <t>December</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>2021</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1862,37 +1862,37 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 38</t>
+          <t>Mountain-500 Silver, 42</t>
         </is>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>420</v>
+        <v>308</v>
       </c>
       <c r="P19" t="n">
-        <v>769</v>
+        <v>565</v>
       </c>
       <c r="Q19" t="n">
-        <v>1396</v>
+        <v>1028</v>
       </c>
       <c r="R19" t="n">
-        <v>1680</v>
+        <v>1232</v>
       </c>
       <c r="S19" t="n">
-        <v>3076</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>261712</v>
+        <v>261714</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1903,26 +1903,26 @@
         <v>2021</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1937,11 +1937,11 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>1266</v>
@@ -1950,24 +1950,24 @@
         <v>2320</v>
       </c>
       <c r="Q20" t="n">
-        <v>2108</v>
+        <v>4216</v>
       </c>
       <c r="R20" t="n">
-        <v>2532</v>
+        <v>5064</v>
       </c>
       <c r="S20" t="n">
-        <v>4640</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>261713</v>
+        <v>261717</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1978,11 +1978,11 @@
         <v>2021</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2012,37 +2012,37 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 42</t>
+          <t>Mountain-100 Black, 38</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>308</v>
+        <v>1898</v>
       </c>
       <c r="P21" t="n">
-        <v>565</v>
+        <v>3375</v>
       </c>
       <c r="Q21" t="n">
-        <v>1028</v>
+        <v>2954</v>
       </c>
       <c r="R21" t="n">
-        <v>1232</v>
+        <v>3796</v>
       </c>
       <c r="S21" t="n">
-        <v>2260</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>261714</v>
+        <v>261718</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2053,11 +2053,11 @@
         <v>2021</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>1266</v>
@@ -2100,24 +2100,24 @@
         <v>2320</v>
       </c>
       <c r="Q22" t="n">
-        <v>4216</v>
+        <v>1054</v>
       </c>
       <c r="R22" t="n">
-        <v>5064</v>
+        <v>1266</v>
       </c>
       <c r="S22" t="n">
-        <v>9280</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>261715</v>
+        <v>261719</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2128,11 +2128,11 @@
         <v>2021</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2186,13 +2186,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>261716</v>
+        <v>261720</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>2021</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2212,17 +2212,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2237,37 +2237,37 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 42</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="P24" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
       <c r="Q24" t="n">
-        <v>245</v>
+        <v>2086</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2504</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>261717</v>
+        <v>261721</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>2021</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2287,17 +2287,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2312,37 +2312,37 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Mountain-100 Black, 38</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1898</v>
+        <v>1252</v>
       </c>
       <c r="P25" t="n">
-        <v>3375</v>
+        <v>2295</v>
       </c>
       <c r="Q25" t="n">
-        <v>2954</v>
+        <v>1043</v>
       </c>
       <c r="R25" t="n">
-        <v>3796</v>
+        <v>1252</v>
       </c>
       <c r="S25" t="n">
-        <v>6750</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>261718</v>
+        <v>261722</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2353,26 +2353,26 @@
         <v>2021</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2387,31 +2387,31 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-500 Black, 40</t>
         </is>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1266</v>
+        <v>295</v>
       </c>
       <c r="P26" t="n">
-        <v>2320</v>
+        <v>540</v>
       </c>
       <c r="Q26" t="n">
-        <v>1054</v>
+        <v>245</v>
       </c>
       <c r="R26" t="n">
-        <v>1266</v>
+        <v>295</v>
       </c>
       <c r="S26" t="n">
-        <v>2320</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>261719</v>
+        <v>261723</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44540</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2462,31 +2462,31 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-100 Silver, 44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1252</v>
+        <v>1912</v>
       </c>
       <c r="P27" t="n">
-        <v>2295</v>
+        <v>3400</v>
       </c>
       <c r="Q27" t="n">
-        <v>2086</v>
+        <v>1488</v>
       </c>
       <c r="R27" t="n">
-        <v>2504</v>
+        <v>1912</v>
       </c>
       <c r="S27" t="n">
-        <v>4590</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>261720</v>
+        <v>261724</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>44540</v>
@@ -2503,7 +2503,7 @@
         <v>2021</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1252</v>
@@ -2550,24 +2550,24 @@
         <v>2295</v>
       </c>
       <c r="Q28" t="n">
-        <v>2086</v>
+        <v>1043</v>
       </c>
       <c r="R28" t="n">
-        <v>2504</v>
+        <v>1252</v>
       </c>
       <c r="S28" t="n">
-        <v>4590</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>261721</v>
+        <v>261725</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2578,26 +2578,26 @@
         <v>2021</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Seine (Paris)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
         <v>1252</v>
@@ -2625,24 +2625,24 @@
         <v>2295</v>
       </c>
       <c r="Q29" t="n">
-        <v>1043</v>
+        <v>3129</v>
       </c>
       <c r="R29" t="n">
-        <v>1252</v>
+        <v>3756</v>
       </c>
       <c r="S29" t="n">
-        <v>2295</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>261722</v>
+        <v>261726</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,26 +2653,26 @@
         <v>2021</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2687,37 +2687,37 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 40</t>
+          <t>Mountain-400-W Silver, 38</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="P30" t="n">
-        <v>540</v>
+        <v>769</v>
       </c>
       <c r="Q30" t="n">
-        <v>245</v>
+        <v>698</v>
       </c>
       <c r="R30" t="n">
-        <v>295</v>
+        <v>840</v>
       </c>
       <c r="S30" t="n">
-        <v>540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>261723</v>
+        <v>261727</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>2021</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2737,17 +2737,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2762,37 +2762,37 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Mountain-100 Silver, 44</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1912</v>
+        <v>1252</v>
       </c>
       <c r="P31" t="n">
-        <v>3400</v>
+        <v>2295</v>
       </c>
       <c r="Q31" t="n">
-        <v>1488</v>
+        <v>1043</v>
       </c>
       <c r="R31" t="n">
-        <v>1912</v>
+        <v>1252</v>
       </c>
       <c r="S31" t="n">
-        <v>3400</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>261724</v>
+        <v>261728</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>2021</v>
       </c>
       <c r="F32" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2837,31 +2837,31 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P32" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q32" t="n">
-        <v>1043</v>
+        <v>349</v>
       </c>
       <c r="R32" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="S32" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>261725</v>
+        <v>261729</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>44541</v>
@@ -2878,11 +2878,11 @@
         <v>2021</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Seine (Paris)</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2912,37 +2912,37 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P33" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q33" t="n">
-        <v>3129</v>
+        <v>1054</v>
       </c>
       <c r="R33" t="n">
-        <v>3756</v>
+        <v>1266</v>
       </c>
       <c r="S33" t="n">
-        <v>6885</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>261726</v>
+        <v>261730</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>2021</v>
       </c>
       <c r="F34" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2987,37 +2987,37 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="P34" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
       <c r="Q34" t="n">
-        <v>698</v>
+        <v>4216</v>
       </c>
       <c r="R34" t="n">
-        <v>840</v>
+        <v>5064</v>
       </c>
       <c r="S34" t="n">
-        <v>1538</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>261727</v>
+        <v>261731</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,11 +3028,11 @@
         <v>2021</v>
       </c>
       <c r="F35" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3062,37 +3062,37 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P35" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q35" t="n">
-        <v>1043</v>
+        <v>1396</v>
       </c>
       <c r="R35" t="n">
-        <v>1252</v>
+        <v>1680</v>
       </c>
       <c r="S35" t="n">
-        <v>2295</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>261728</v>
+        <v>261732</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="C36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,11 +3103,11 @@
         <v>2021</v>
       </c>
       <c r="F36" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3117,12 +3117,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3137,37 +3137,37 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P36" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q36" t="n">
-        <v>349</v>
+        <v>2086</v>
       </c>
       <c r="R36" t="n">
-        <v>420</v>
+        <v>2504</v>
       </c>
       <c r="S36" t="n">
-        <v>769</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>261729</v>
+        <v>261733</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>2021</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3236,7 +3236,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>261730</v>
+        <v>261734</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>44542</v>
@@ -3253,7 +3253,7 @@
         <v>2021</v>
       </c>
       <c r="F38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3267,12 +3267,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>1266</v>
@@ -3300,24 +3300,24 @@
         <v>2320</v>
       </c>
       <c r="Q38" t="n">
-        <v>4216</v>
+        <v>1054</v>
       </c>
       <c r="R38" t="n">
-        <v>5064</v>
+        <v>1266</v>
       </c>
       <c r="S38" t="n">
-        <v>9280</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>261731</v>
+        <v>261735</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,26 +3328,26 @@
         <v>2021</v>
       </c>
       <c r="F39" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3362,37 +3362,37 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="P39" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
       <c r="Q39" t="n">
-        <v>1396</v>
+        <v>3162</v>
       </c>
       <c r="R39" t="n">
-        <v>1680</v>
+        <v>3798</v>
       </c>
       <c r="S39" t="n">
-        <v>3076</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>261732</v>
+        <v>261736</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3403,26 +3403,26 @@
         <v>2021</v>
       </c>
       <c r="F40" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3437,37 +3437,37 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-500 Silver, 40</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>1252</v>
+        <v>308</v>
       </c>
       <c r="P40" t="n">
-        <v>2295</v>
+        <v>565</v>
       </c>
       <c r="Q40" t="n">
-        <v>2086</v>
+        <v>257</v>
       </c>
       <c r="R40" t="n">
-        <v>2504</v>
+        <v>308</v>
       </c>
       <c r="S40" t="n">
-        <v>4590</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>261733</v>
+        <v>261737</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>2021</v>
       </c>
       <c r="F41" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3492,12 +3492,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3512,37 +3512,37 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P41" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q41" t="n">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="R41" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="S41" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>261734</v>
+        <v>261738</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>2021</v>
       </c>
       <c r="F42" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3562,17 +3562,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3587,37 +3587,37 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P42" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q42" t="n">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="R42" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="S42" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>261735</v>
+        <v>261739</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>2021</v>
       </c>
       <c r="F43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
         <v>1266</v>
@@ -3675,24 +3675,24 @@
         <v>2320</v>
       </c>
       <c r="Q43" t="n">
-        <v>3162</v>
+        <v>2108</v>
       </c>
       <c r="R43" t="n">
-        <v>3798</v>
+        <v>2532</v>
       </c>
       <c r="S43" t="n">
-        <v>6960</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>261736</v>
+        <v>261740</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,16 +3703,16 @@
         <v>2021</v>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3737,37 +3737,37 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 40</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N44" t="n">
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>308</v>
+        <v>1252</v>
       </c>
       <c r="P44" t="n">
-        <v>565</v>
+        <v>2295</v>
       </c>
       <c r="Q44" t="n">
-        <v>257</v>
+        <v>1043</v>
       </c>
       <c r="R44" t="n">
-        <v>308</v>
+        <v>1252</v>
       </c>
       <c r="S44" t="n">
-        <v>565</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>261737</v>
+        <v>261741</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3778,11 +3778,11 @@
         <v>2021</v>
       </c>
       <c r="F45" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3792,12 +3792,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3812,37 +3812,37 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N45" t="n">
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P45" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q45" t="n">
-        <v>1043</v>
+        <v>349</v>
       </c>
       <c r="R45" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="S45" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>261738</v>
+        <v>261742</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3853,26 +3853,26 @@
         <v>2021</v>
       </c>
       <c r="F46" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3887,37 +3887,37 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N46" t="n">
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P46" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q46" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="R46" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="S46" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>261739</v>
+        <v>261743</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>2021</v>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3962,37 +3962,37 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N47" t="n">
         <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P47" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q47" t="n">
-        <v>2108</v>
+        <v>2086</v>
       </c>
       <c r="R47" t="n">
-        <v>2532</v>
+        <v>2504</v>
       </c>
       <c r="S47" t="n">
-        <v>4640</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>261740</v>
+        <v>261744</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4003,11 +4003,11 @@
         <v>2021</v>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
         <v>1252</v>
@@ -4050,24 +4050,24 @@
         <v>2295</v>
       </c>
       <c r="Q48" t="n">
-        <v>1043</v>
+        <v>2086</v>
       </c>
       <c r="R48" t="n">
-        <v>1252</v>
+        <v>2504</v>
       </c>
       <c r="S48" t="n">
-        <v>2295</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>261741</v>
+        <v>261745</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>2021</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Seine et Marne</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4112,37 +4112,37 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="P49" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
       <c r="Q49" t="n">
-        <v>349</v>
+        <v>1054</v>
       </c>
       <c r="R49" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="S49" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>261742</v>
+        <v>261746</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4153,11 +4153,11 @@
         <v>2021</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4187,11 +4187,11 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
         <v>1266</v>
@@ -4200,24 +4200,24 @@
         <v>2320</v>
       </c>
       <c r="Q50" t="n">
-        <v>1054</v>
+        <v>2108</v>
       </c>
       <c r="R50" t="n">
-        <v>1266</v>
+        <v>2532</v>
       </c>
       <c r="S50" t="n">
-        <v>2320</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>261743</v>
+        <v>261747</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>2021</v>
       </c>
       <c r="F51" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4262,37 +4262,37 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-400-W Silver, 42</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>1252</v>
+        <v>420</v>
       </c>
       <c r="P51" t="n">
-        <v>2295</v>
+        <v>769</v>
       </c>
       <c r="Q51" t="n">
-        <v>2086</v>
+        <v>349</v>
       </c>
       <c r="R51" t="n">
-        <v>2504</v>
+        <v>420</v>
       </c>
       <c r="S51" t="n">
-        <v>4590</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>261744</v>
+        <v>261748</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>2021</v>
       </c>
       <c r="F52" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4337,37 +4337,37 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P52" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q52" t="n">
-        <v>2086</v>
+        <v>1054</v>
       </c>
       <c r="R52" t="n">
-        <v>2504</v>
+        <v>1266</v>
       </c>
       <c r="S52" t="n">
-        <v>4590</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>261745</v>
+        <v>261749</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4378,11 +4378,11 @@
         <v>2021</v>
       </c>
       <c r="F53" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Seine et Marne</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4412,37 +4412,37 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-500 Silver, 42</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O53" t="n">
-        <v>1266</v>
+        <v>308</v>
       </c>
       <c r="P53" t="n">
-        <v>2320</v>
+        <v>565</v>
       </c>
       <c r="Q53" t="n">
-        <v>1054</v>
+        <v>1028</v>
       </c>
       <c r="R53" t="n">
-        <v>1266</v>
+        <v>1232</v>
       </c>
       <c r="S53" t="n">
-        <v>2320</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>261746</v>
+        <v>261750</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44547</v>
+        <v>44548</v>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>2021</v>
       </c>
       <c r="F54" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4467,12 +4467,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4487,11 +4487,11 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
         <v>1266</v>
@@ -4500,24 +4500,24 @@
         <v>2320</v>
       </c>
       <c r="Q54" t="n">
-        <v>2108</v>
+        <v>4216</v>
       </c>
       <c r="R54" t="n">
-        <v>2532</v>
+        <v>5064</v>
       </c>
       <c r="S54" t="n">
-        <v>4640</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>261747</v>
+        <v>261751</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44547</v>
+        <v>44548</v>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4528,26 +4528,26 @@
         <v>2021</v>
       </c>
       <c r="F55" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Seine Saint Denis</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4562,37 +4562,37 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="P55" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
       <c r="Q55" t="n">
-        <v>349</v>
+        <v>3162</v>
       </c>
       <c r="R55" t="n">
-        <v>420</v>
+        <v>3798</v>
       </c>
       <c r="S55" t="n">
-        <v>769</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>261748</v>
+        <v>261752</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44547</v>
+        <v>44548</v>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4603,11 +4603,11 @@
         <v>2021</v>
       </c>
       <c r="F56" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4637,31 +4637,31 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-400-W Silver, 42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>1266</v>
+        <v>420</v>
       </c>
       <c r="P56" t="n">
-        <v>2320</v>
+        <v>769</v>
       </c>
       <c r="Q56" t="n">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="R56" t="n">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="S56" t="n">
-        <v>2320</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>261749</v>
+        <v>261753</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>44548</v>
@@ -4678,7 +4678,7 @@
         <v>2021</v>
       </c>
       <c r="F57" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4712,31 +4712,31 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 42</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>308</v>
+        <v>1252</v>
       </c>
       <c r="P57" t="n">
-        <v>565</v>
+        <v>2295</v>
       </c>
       <c r="Q57" t="n">
-        <v>1028</v>
+        <v>3129</v>
       </c>
       <c r="R57" t="n">
-        <v>1232</v>
+        <v>3756</v>
       </c>
       <c r="S57" t="n">
-        <v>2260</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>261750</v>
+        <v>261754</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>44548</v>
@@ -4753,26 +4753,26 @@
         <v>2021</v>
       </c>
       <c r="F58" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Seine (Paris)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4787,31 +4787,31 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P58" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q58" t="n">
-        <v>4216</v>
+        <v>1043</v>
       </c>
       <c r="R58" t="n">
-        <v>5064</v>
+        <v>1252</v>
       </c>
       <c r="S58" t="n">
-        <v>9280</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>261751</v>
+        <v>261755</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>44548</v>
@@ -4828,26 +4828,26 @@
         <v>2021</v>
       </c>
       <c r="F59" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Seine Saint Denis</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>1266</v>
@@ -4875,24 +4875,24 @@
         <v>2320</v>
       </c>
       <c r="Q59" t="n">
-        <v>3162</v>
+        <v>1054</v>
       </c>
       <c r="R59" t="n">
-        <v>3798</v>
+        <v>1266</v>
       </c>
       <c r="S59" t="n">
-        <v>6960</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>261752</v>
+        <v>261756</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4903,26 +4903,26 @@
         <v>2021</v>
       </c>
       <c r="F60" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4937,37 +4937,37 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 42</t>
+          <t>Mountain-200 Silver, 46</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>420</v>
+        <v>1266</v>
       </c>
       <c r="P60" t="n">
-        <v>769</v>
+        <v>2320</v>
       </c>
       <c r="Q60" t="n">
-        <v>1047</v>
+        <v>4216</v>
       </c>
       <c r="R60" t="n">
-        <v>1260</v>
+        <v>5064</v>
       </c>
       <c r="S60" t="n">
-        <v>2307</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>261753</v>
+        <v>261757</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="C61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4978,26 +4978,26 @@
         <v>2021</v>
       </c>
       <c r="F61" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5012,37 +5012,37 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-500 Black, 44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="P61" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
       <c r="Q61" t="n">
-        <v>3129</v>
+        <v>980</v>
       </c>
       <c r="R61" t="n">
-        <v>3756</v>
+        <v>1180</v>
       </c>
       <c r="S61" t="n">
-        <v>6885</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>261754</v>
+        <v>261758</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="C62" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>2021</v>
       </c>
       <c r="F62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O62" t="n">
         <v>1252</v>
@@ -5100,24 +5100,24 @@
         <v>2295</v>
       </c>
       <c r="Q62" t="n">
-        <v>1043</v>
+        <v>4172</v>
       </c>
       <c r="R62" t="n">
-        <v>1252</v>
+        <v>5008</v>
       </c>
       <c r="S62" t="n">
-        <v>2295</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>261755</v>
+        <v>261759</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>2021</v>
       </c>
       <c r="F63" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5162,31 +5162,31 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-100 Black, 48</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O63" t="n">
-        <v>1266</v>
+        <v>1898</v>
       </c>
       <c r="P63" t="n">
-        <v>2320</v>
+        <v>3375</v>
       </c>
       <c r="Q63" t="n">
-        <v>1054</v>
+        <v>5908</v>
       </c>
       <c r="R63" t="n">
-        <v>1266</v>
+        <v>7592</v>
       </c>
       <c r="S63" t="n">
-        <v>2320</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>261756</v>
+        <v>261760</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>44549</v>
@@ -5203,11 +5203,11 @@
         <v>2021</v>
       </c>
       <c r="F64" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5217,12 +5217,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5237,31 +5237,31 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N64" t="n">
         <v>4</v>
       </c>
       <c r="O64" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P64" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q64" t="n">
-        <v>4216</v>
+        <v>4172</v>
       </c>
       <c r="R64" t="n">
-        <v>5064</v>
+        <v>5008</v>
       </c>
       <c r="S64" t="n">
-        <v>9280</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>261757</v>
+        <v>261761</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>44549</v>
@@ -5278,11 +5278,11 @@
         <v>2021</v>
       </c>
       <c r="F65" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5292,12 +5292,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5312,31 +5312,31 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 44</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N65" t="n">
         <v>4</v>
       </c>
       <c r="O65" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="P65" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
       <c r="Q65" t="n">
-        <v>980</v>
+        <v>4172</v>
       </c>
       <c r="R65" t="n">
-        <v>1180</v>
+        <v>5008</v>
       </c>
       <c r="S65" t="n">
-        <v>2160</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>261758</v>
+        <v>261762</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>44549</v>
@@ -5353,26 +5353,26 @@
         <v>2021</v>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Seine (Paris)</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -5411,7 +5411,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>261759</v>
+        <v>261763</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>44549</v>
@@ -5428,26 +5428,26 @@
         <v>2021</v>
       </c>
       <c r="F67" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>South Australia</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5462,31 +5462,31 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Mountain-100 Black, 48</t>
+          <t>Mountain-500 Black, 40</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>1898</v>
+        <v>295</v>
       </c>
       <c r="P67" t="n">
-        <v>3375</v>
+        <v>540</v>
       </c>
       <c r="Q67" t="n">
-        <v>5908</v>
+        <v>490</v>
       </c>
       <c r="R67" t="n">
-        <v>7592</v>
+        <v>590</v>
       </c>
       <c r="S67" t="n">
-        <v>13500</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>261760</v>
+        <v>261764</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>44549</v>
@@ -5503,7 +5503,7 @@
         <v>2021</v>
       </c>
       <c r="F68" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5537,11 +5537,11 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
         <v>1252</v>
@@ -5550,18 +5550,18 @@
         <v>2295</v>
       </c>
       <c r="Q68" t="n">
-        <v>4172</v>
+        <v>2086</v>
       </c>
       <c r="R68" t="n">
-        <v>5008</v>
+        <v>2504</v>
       </c>
       <c r="S68" t="n">
-        <v>9180</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>261761</v>
+        <v>261765</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>44549</v>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5612,37 +5612,37 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P69" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q69" t="n">
-        <v>4172</v>
+        <v>1054</v>
       </c>
       <c r="R69" t="n">
-        <v>5008</v>
+        <v>1266</v>
       </c>
       <c r="S69" t="n">
-        <v>9180</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>261762</v>
+        <v>261766</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44549</v>
+        <v>44550</v>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5653,11 +5653,11 @@
         <v>2021</v>
       </c>
       <c r="F70" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5687,37 +5687,37 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-100 Black, 38</t>
         </is>
       </c>
       <c r="N70" t="n">
         <v>4</v>
       </c>
       <c r="O70" t="n">
-        <v>1252</v>
+        <v>1898</v>
       </c>
       <c r="P70" t="n">
-        <v>2295</v>
+        <v>3375</v>
       </c>
       <c r="Q70" t="n">
-        <v>4172</v>
+        <v>5908</v>
       </c>
       <c r="R70" t="n">
-        <v>5008</v>
+        <v>7592</v>
       </c>
       <c r="S70" t="n">
-        <v>9180</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>261763</v>
+        <v>261767</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44549</v>
+        <v>44550</v>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5728,11 +5728,11 @@
         <v>2021</v>
       </c>
       <c r="F71" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>South Australia</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5762,37 +5762,37 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 40</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O71" t="n">
-        <v>295</v>
+        <v>1252</v>
       </c>
       <c r="P71" t="n">
-        <v>540</v>
+        <v>2295</v>
       </c>
       <c r="Q71" t="n">
-        <v>490</v>
+        <v>4172</v>
       </c>
       <c r="R71" t="n">
-        <v>590</v>
+        <v>5008</v>
       </c>
       <c r="S71" t="n">
-        <v>1080</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>261764</v>
+        <v>261768</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44549</v>
+        <v>44550</v>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5803,26 +5803,26 @@
         <v>2021</v>
       </c>
       <c r="F72" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5837,37 +5837,37 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-500 Black, 52</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="P72" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
       <c r="Q72" t="n">
-        <v>2086</v>
+        <v>735</v>
       </c>
       <c r="R72" t="n">
-        <v>2504</v>
+        <v>885</v>
       </c>
       <c r="S72" t="n">
-        <v>4590</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>261765</v>
+        <v>261769</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44549</v>
+        <v>44550</v>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>2021</v>
       </c>
       <c r="F73" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5892,12 +5892,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5936,7 +5936,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>261766</v>
+        <v>261770</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>44550</v>
@@ -5953,16 +5953,16 @@
         <v>2021</v>
       </c>
       <c r="F74" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5987,37 +5987,37 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Mountain-100 Black, 38</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>1898</v>
+        <v>1266</v>
       </c>
       <c r="P74" t="n">
-        <v>3375</v>
+        <v>2320</v>
       </c>
       <c r="Q74" t="n">
-        <v>5908</v>
+        <v>1054</v>
       </c>
       <c r="R74" t="n">
-        <v>7592</v>
+        <v>1266</v>
       </c>
       <c r="S74" t="n">
-        <v>13500</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>261767</v>
+        <v>261771</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6028,11 +6028,11 @@
         <v>2021</v>
       </c>
       <c r="F75" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6042,12 +6042,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Somme</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6062,37 +6062,37 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O75" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P75" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q75" t="n">
-        <v>4172</v>
+        <v>3162</v>
       </c>
       <c r="R75" t="n">
-        <v>5008</v>
+        <v>3798</v>
       </c>
       <c r="S75" t="n">
-        <v>9180</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>261768</v>
+        <v>261772</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6103,11 +6103,11 @@
         <v>2021</v>
       </c>
       <c r="F76" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6117,12 +6117,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6137,37 +6137,37 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Mountain-500 Black, 52</t>
+          <t>Mountain-400-W Silver, 46</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="P76" t="n">
-        <v>540</v>
+        <v>769</v>
       </c>
       <c r="Q76" t="n">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="R76" t="n">
-        <v>885</v>
+        <v>840</v>
       </c>
       <c r="S76" t="n">
-        <v>1620</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>261769</v>
+        <v>261773</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6178,11 +6178,11 @@
         <v>2021</v>
       </c>
       <c r="F77" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Adults (35-64)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6192,12 +6192,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77" t="n">
         <v>1266</v>
@@ -6225,24 +6225,24 @@
         <v>2320</v>
       </c>
       <c r="Q77" t="n">
-        <v>1054</v>
+        <v>3162</v>
       </c>
       <c r="R77" t="n">
-        <v>1266</v>
+        <v>3798</v>
       </c>
       <c r="S77" t="n">
-        <v>2320</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>261770</v>
+        <v>261774</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>2021</v>
       </c>
       <c r="F78" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6267,12 +6267,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6287,37 +6287,37 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P78" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q78" t="n">
-        <v>1054</v>
+        <v>3129</v>
       </c>
       <c r="R78" t="n">
-        <v>1266</v>
+        <v>3756</v>
       </c>
       <c r="S78" t="n">
-        <v>2320</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>261771</v>
+        <v>261775</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6328,26 +6328,26 @@
         <v>2021</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Youth (&lt;25)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Somme</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6362,37 +6362,37 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-500 Silver, 42</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>1266</v>
+        <v>308</v>
       </c>
       <c r="P79" t="n">
-        <v>2320</v>
+        <v>565</v>
       </c>
       <c r="Q79" t="n">
-        <v>3162</v>
+        <v>257</v>
       </c>
       <c r="R79" t="n">
-        <v>3798</v>
+        <v>308</v>
       </c>
       <c r="S79" t="n">
-        <v>6960</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>261772</v>
+        <v>261776</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6403,11 +6403,11 @@
         <v>2021</v>
       </c>
       <c r="F80" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6417,12 +6417,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Seine (Paris)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6437,31 +6437,31 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Mountain-400-W Silver, 46</t>
+          <t>Mountain-200 Black, 38</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>420</v>
+        <v>1252</v>
       </c>
       <c r="P80" t="n">
-        <v>769</v>
+        <v>2295</v>
       </c>
       <c r="Q80" t="n">
-        <v>698</v>
+        <v>1043</v>
       </c>
       <c r="R80" t="n">
-        <v>840</v>
+        <v>1252</v>
       </c>
       <c r="S80" t="n">
-        <v>1538</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>261773</v>
+        <v>261777</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>44552</v>
@@ -6478,7 +6478,7 @@
         <v>2021</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6512,31 +6512,31 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 46</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P81" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q81" t="n">
-        <v>3162</v>
+        <v>1043</v>
       </c>
       <c r="R81" t="n">
-        <v>3798</v>
+        <v>1252</v>
       </c>
       <c r="S81" t="n">
-        <v>6960</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>261774</v>
+        <v>261778</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>44552</v>
@@ -6567,12 +6567,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6587,37 +6587,37 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 42</t>
+          <t>Mountain-200 Silver, 38</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="P82" t="n">
-        <v>2295</v>
+        <v>2320</v>
       </c>
       <c r="Q82" t="n">
-        <v>3129</v>
+        <v>1054</v>
       </c>
       <c r="R82" t="n">
-        <v>3756</v>
+        <v>1266</v>
       </c>
       <c r="S82" t="n">
-        <v>6885</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>261775</v>
+        <v>261779</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C83" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6628,11 +6628,11 @@
         <v>2021</v>
       </c>
       <c r="F83" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Youth (&lt;25)</t>
+          <t>Young Adults (25-34)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6642,12 +6642,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6662,37 +6662,37 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Mountain-500 Silver, 42</t>
+          <t>Mountain-200 Silver, 42</t>
         </is>
       </c>
       <c r="N83" t="n">
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>308</v>
+        <v>1266</v>
       </c>
       <c r="P83" t="n">
-        <v>565</v>
+        <v>2320</v>
       </c>
       <c r="Q83" t="n">
-        <v>257</v>
+        <v>1054</v>
       </c>
       <c r="R83" t="n">
-        <v>308</v>
+        <v>1266</v>
       </c>
       <c r="S83" t="n">
-        <v>565</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>261776</v>
+        <v>261780</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>2021</v>
       </c>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -6712,17 +6712,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Seine (Paris)</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 38</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -6761,13 +6761,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>261777</v>
+        <v>261781</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6778,11 +6778,11 @@
         <v>2021</v>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Young Adults (25-34)</t>
+          <t>Adults (35-64)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6792,12 +6792,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>California</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6812,37 +6812,37 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Mountain-200 Black, 46</t>
+          <t>Mountain-500 Black, 42</t>
         </is>
       </c>
       <c r="N85" t="n">
         <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="P85" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
       <c r="Q85" t="n">
-        <v>1043</v>
+        <v>245</v>
       </c>
       <c r="R85" t="n">
-        <v>1252</v>
+        <v>295</v>
       </c>
       <c r="S85" t="n">
-        <v>2295</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>261778</v>
+        <v>261782</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44552</v>
+        <v>44554</v>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>2021</v>
       </c>
       <c r="F86" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -6867,12 +6867,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6887,325 +6887,25 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Mountain-200 Silver, 38</t>
+          <t>Mountain-200 Black, 42</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O86" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="P86" t="n">
-        <v>2320</v>
+        <v>2295</v>
       </c>
       <c r="Q86" t="n">
-        <v>1054</v>
+        <v>4172</v>
       </c>
       <c r="R86" t="n">
-        <v>1266</v>
+        <v>5008</v>
       </c>
       <c r="S86" t="n">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>261779</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44553</v>
-      </c>
-      <c r="C87" t="n">
-        <v>23</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F87" t="n">
-        <v>30</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Young Adults (25-34)</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Oregon</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Bikes</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Mountain Bikes</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Mountain-200 Silver, 42</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1266</v>
-      </c>
-      <c r="P87" t="n">
-        <v>2320</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1054</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1266</v>
-      </c>
-      <c r="S87" t="n">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>261780</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44553</v>
-      </c>
-      <c r="C88" t="n">
-        <v>23</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F88" t="n">
-        <v>31</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Young Adults (25-34)</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>British Columbia</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Bikes</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Mountain Bikes</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Mountain-200 Black, 42</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1252</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2295</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1043</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1252</v>
-      </c>
-      <c r="S88" t="n">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>261781</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>44553</v>
-      </c>
-      <c r="C89" t="n">
-        <v>23</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F89" t="n">
-        <v>35</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Adults (35-64)</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Bikes</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Mountain Bikes</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Mountain-500 Black, 42</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" t="n">
-        <v>295</v>
-      </c>
-      <c r="P89" t="n">
-        <v>540</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>245</v>
-      </c>
-      <c r="R89" t="n">
-        <v>295</v>
-      </c>
-      <c r="S89" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>261782</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>44554</v>
-      </c>
-      <c r="C90" t="n">
-        <v>24</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F90" t="n">
-        <v>38</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Adults (35-64)</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Queensland</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Bikes</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Mountain Bikes</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Mountain-200 Black, 42</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>4</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1252</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2295</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>4172</v>
-      </c>
-      <c r="R90" t="n">
-        <v>5008</v>
-      </c>
-      <c r="S90" t="n">
         <v>9180</v>
       </c>
     </row>
